--- a/DataBaseManagementSystem/SQLDBMS/SQLTutorial.xlsx
+++ b/DataBaseManagementSystem/SQLDBMS/SQLTutorial.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AboutSQL" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>About Desc (Describe as a SQL statement in SQL Plus and Desc (Descendig order) as a Keyword with ORDER BY keyword in SQL SELECT statement. And as a SQL statement under which category it belongs to? Even same question includes for…SQL Truncate Table, USE, COMMIT statements.</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Get available numeric functions list in SQL Numeric expression like sum(), count() and avg()</t>
-  </si>
-  <si>
-    <t>Try to create New Table from existing one if possible for PDB using Oracle and MS SQL Server 2012.</t>
   </si>
   <si>
     <t>Get Description of each table in PDB using DESC sql statement and try to get more info on Datatype used, primary key defined</t>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>Detailed level of explanation on Primary and Foreign Key.</t>
+  </si>
+  <si>
+    <t>Try to create New Table from existing one if possible for PDB in Oracle and MS SQL Server 2012.</t>
+  </si>
+  <si>
+    <t>About Database Diagrams</t>
   </si>
 </sst>
 </file>
@@ -397,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,42 +432,42 @@
     </row>
     <row r="5" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,17 +497,22 @@
     </row>
     <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
